--- a/docs/环境清单.xlsx
+++ b/docs/环境清单.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="主机" sheetId="1" r:id="rId1"/>
-    <sheet name="软件" sheetId="2" r:id="rId2"/>
+    <sheet name="阿里云" sheetId="3" r:id="rId2"/>
+    <sheet name="软件" sheetId="2" r:id="rId3"/>
+    <sheet name="数据库" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>主机名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +100,61 @@
   </si>
   <si>
     <t>139.129.29.141:9200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hirun2016@aliyun.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hirun888</t>
+  </si>
+  <si>
+    <t>rds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rds/1q1w1e1r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hirun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip/端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ins/1q1w1e1r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out/1q1w1e1r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,6 +570,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -525,10 +593,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,7 +638,7 @@
     <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -552,8 +651,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -566,8 +668,11 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -577,8 +682,11 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -588,8 +696,11 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -598,6 +709,9 @@
       </c>
       <c r="C5" t="s">
         <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -605,4 +719,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/环境清单.xlsx
+++ b/docs/环境清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主机" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>主机名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,13 +155,29 @@
   </si>
   <si>
     <t>out/1q1w1e1r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.11-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hirun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.129.29.141:9092</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +254,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -624,10 +640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -714,6 +730,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -725,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
